--- a/download/template/server.xlsx
+++ b/download/template/server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GameID</t>
   </si>
@@ -37,11 +37,23 @@
     <t>Port</t>
   </si>
   <si>
-    <t>config.ini</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>server/game/config/config.ini</t>
+    <t>config.ini(配置文件名字)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>server/game/config/config.ini(配置文件生成的路径)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>server/gate/config/config.ini(配置文件生成的路径)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>server.ini(配置文件名字)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>server/entry/config/srv.ini(配置文件生成的路径)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,14 +497,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.625" customWidth="1"/>
     <col min="2" max="2" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="3" max="3" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -502,11 +514,17 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
